--- a/Find_and_Replace.xlsx
+++ b/Find_and_Replace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\.py-Italy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898F9718-F2FF-46C1-A6AE-6F0BDE6E2EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88996254-D3D6-41E0-A48D-6AF01B72D088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,16 @@
     <sheet name="text_map" sheetId="2" r:id="rId2"/>
     <sheet name="price_map" sheetId="3" r:id="rId3"/>
     <sheet name="words_find_replece" sheetId="4" r:id="rId4"/>
-    <sheet name="item_sku" sheetId="7" r:id="rId5"/>
-    <sheet name="all_numbers" sheetId="8" r:id="rId6"/>
-    <sheet name="main_image_url" sheetId="9" r:id="rId7"/>
-    <sheet name="other_image_url2-8" sheetId="10" r:id="rId8"/>
+    <sheet name="settings" sheetId="11" r:id="rId5"/>
+    <sheet name="tone_map" sheetId="12" r:id="rId6"/>
+    <sheet name="item_sku" sheetId="7" r:id="rId7"/>
+    <sheet name="all_numbers" sheetId="8" r:id="rId8"/>
+    <sheet name="main_image_url" sheetId="9" r:id="rId9"/>
+    <sheet name="other_image_url2-8" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="ApplicablePTList1">AND(LEN([1]Modello!$C1)&gt;0,NOT([1]Modello!$C1="WINDOW_FILM"))</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="265">
   <si>
     <t>key</t>
   </si>
@@ -789,6 +791,69 @@
   </si>
   <si>
     <t>Heat Shrink</t>
+  </si>
+  <si>
+    <t>item_tail_it</t>
+  </si>
+  <si>
+    <t>generic_keywords_default</t>
+  </si>
+  <si>
+    <t>pellicola oscurante vetri auto, pellicola vetri auto, oscuramento vetri auto, oscurare vetri auto</t>
+  </si>
+  <si>
+    <t>pellicola vetri auto, oscuramento vetri auto, oscurare vetri auto, vetri oscurati</t>
+  </si>
+  <si>
+    <t>oscuramento vetri auto, oscurare vetri auto, vetri oscurati, pellicola oscurante</t>
+  </si>
+  <si>
+    <t>oscurare vetri auto, vetri oscurati, pellicola oscurante, oscuramento vetri</t>
+  </si>
+  <si>
+    <t>vetri oscurati, pellicola oscurante, oscuramento vetri, pellicola oscurante vetri auto pretagliata</t>
+  </si>
+  <si>
+    <t>pellicola oscurante, oscuramento vetri, pellicola oscurante vetri auto pretagliata, kit pellicola oscurante vetri auto</t>
+  </si>
+  <si>
+    <t>oscuramento vetri, pellicola oscurante vetri auto pretagliata, kit pellicola oscurante vetri auto, oscura vetri auto</t>
+  </si>
+  <si>
+    <t>pellicola oscurante vetri auto pretagliata, kit pellicola oscurante vetri auto, oscura vetri auto, pellicola oscurante auto</t>
+  </si>
+  <si>
+    <t>kit pellicola oscurante vetri auto, oscura vetri auto, pellicola oscurante auto, pellicola oscurante vetri auto pre-tagliata</t>
+  </si>
+  <si>
+    <t>oscura vetri auto, pellicola oscurante auto, pellicola oscurante vetri auto pre-tagliata, vetri auto oscurati</t>
+  </si>
+  <si>
+    <t>pellicola oscurante auto, pellicola oscurante vetri auto pre-tagliata, vetri auto oscurati, oscuramento</t>
+  </si>
+  <si>
+    <t>pellicola oscurante vetri auto pre-tagliata, vetri auto oscurati, oscuramento, pellicole oscuranti vetri auto</t>
+  </si>
+  <si>
+    <t>vetri auto oscurati, oscuramento, pellicole oscuranti vetri auto, pellicola vetro oscurante</t>
+  </si>
+  <si>
+    <t>oscuramento, pellicole oscuranti vetri auto, pellicola vetro oscurante, oscurante vetri auto</t>
+  </si>
+  <si>
+    <t>pellicole oscuranti vetri auto, pellicola vetro oscurante, oscurante vetri auto, pellicola oscuramento vetri</t>
+  </si>
+  <si>
+    <t>pellicola vetro oscurante, oscurante vetri auto, pellicola oscuramento vetri, pellicola vetri oscurati auto</t>
+  </si>
+  <si>
+    <t>oscurante vetri auto, pellicola oscuramento vetri, pellicola vetri oscurati auto, pellicola auto vetri</t>
+  </si>
+  <si>
+    <t>pellicola oscuramento vetri, pellicola vetri oscurati auto, pellicola auto vetri, pellicola per oscurare vetri auto</t>
+  </si>
+  <si>
+    <t>heat_shrink_blank</t>
   </si>
 </sst>
 </file>
@@ -3726,12 +3791,140 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A3859-AD1A-450C-8EC7-BBE93BE039F4}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="87.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4700,7 +4893,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5022,6 +5215,255 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D96BD844-C0C7-4174-90BC-3DBE128CC6F5}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="104" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>245</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>245</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>245</v>
+      </c>
+      <c r="B10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF6117A-4884-4D39-81FC-2A4B15F13071}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="42.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCD14E1-4197-428D-9212-BE2A11018E0E}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -5074,7 +5516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BD1BB6-2797-427C-9B31-8AFEC05F49BB}">
   <dimension ref="A1:C12"/>
   <sheetViews>
@@ -5224,7 +5666,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C262DEC9-8084-438A-8CBA-B5257AF578CC}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5262,132 +5704,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2A3859-AD1A-450C-8EC7-BBE93BE039F4}">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="3" width="87.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>